--- a/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet_AutoPattern_v1.xlsx
+++ b/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet_AutoPattern_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="585" windowWidth="11415" windowHeight="2775" activeTab="8"/>
+    <workbookView xWindow="270" yWindow="585" windowWidth="11415" windowHeight="2775" tabRatio="623"/>
   </bookViews>
   <sheets>
     <sheet name="ABCB1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="CYP2D6" sheetId="10" r:id="rId10"/>
     <sheet name="CYP3A4" sheetId="11" r:id="rId11"/>
     <sheet name="DPYD" sheetId="12" r:id="rId12"/>
-    <sheet name="HMGCR" sheetId="13" r:id="rId13"/>
-    <sheet name="P2RY12 " sheetId="14" r:id="rId14"/>
-    <sheet name="_SLCO1B1 " sheetId="15" r:id="rId15"/>
-    <sheet name="SULT1A1" sheetId="16" r:id="rId16"/>
-    <sheet name="TPMT" sheetId="17" r:id="rId17"/>
-    <sheet name="UGT1A1" sheetId="18" r:id="rId18"/>
-    <sheet name="VKORC1" sheetId="19" r:id="rId19"/>
-    <sheet name="G6PD" sheetId="20" r:id="rId20"/>
+    <sheet name="G6PD" sheetId="20" r:id="rId13"/>
+    <sheet name="HMGCR" sheetId="13" r:id="rId14"/>
+    <sheet name="P2RY12 " sheetId="14" r:id="rId15"/>
+    <sheet name="_SLCO1B1 " sheetId="15" r:id="rId16"/>
+    <sheet name="SULT1A1" sheetId="16" r:id="rId17"/>
+    <sheet name="TPMT" sheetId="17" r:id="rId18"/>
+    <sheet name="UGT1A1" sheetId="18" r:id="rId19"/>
+    <sheet name="VKORC1" sheetId="19" r:id="rId20"/>
     <sheet name="Hoja1" sheetId="21" state="hidden" r:id="rId21"/>
   </sheets>
   <definedNames>
@@ -42,14 +42,14 @@
     <definedName name="CYP2D6_haplotypes" localSheetId="9">CYP2D6!$D$1:$N$12</definedName>
     <definedName name="CYP3A4_haplotypes" localSheetId="10">CYP3A4!$D$1:$P$45</definedName>
     <definedName name="DPYD_haplotypes" localSheetId="11">DPYD!$D$1:$R$16</definedName>
-    <definedName name="G6PD_haplotypes" localSheetId="19">G6PD!$D$1:$J$6</definedName>
-    <definedName name="HMGCR_haplotypes" localSheetId="12">HMGCR!$D$1:$O$3</definedName>
-    <definedName name="P2RY12_haplotypes" localSheetId="13">'P2RY12 '!$D$1:$H$3</definedName>
-    <definedName name="SLCO1B1_haplotypes" localSheetId="14">'_SLCO1B1 '!$D$1:$AC$35</definedName>
-    <definedName name="SULT1A1_haplotypes" localSheetId="15">SULT1A1!$D$1:$G$5</definedName>
-    <definedName name="TPMT_haplotypes" localSheetId="16">TPMT!$D$1:$H$30</definedName>
-    <definedName name="UGT1A1_haplotypes" localSheetId="17">UGT1A1!$D$1:$M$40</definedName>
-    <definedName name="VKORC1_haplotypes" localSheetId="18">VKORC1!$D$1:$N$14</definedName>
+    <definedName name="G6PD_haplotypes" localSheetId="12">G6PD!$D$1:$J$6</definedName>
+    <definedName name="HMGCR_haplotypes" localSheetId="13">HMGCR!$D$1:$O$3</definedName>
+    <definedName name="P2RY12_haplotypes" localSheetId="14">'P2RY12 '!$D$1:$H$3</definedName>
+    <definedName name="SLCO1B1_haplotypes" localSheetId="15">'_SLCO1B1 '!$D$1:$AC$35</definedName>
+    <definedName name="SULT1A1_haplotypes" localSheetId="16">SULT1A1!$D$1:$G$5</definedName>
+    <definedName name="TPMT_haplotypes" localSheetId="17">TPMT!$D$1:$H$30</definedName>
+    <definedName name="UGT1A1_haplotypes" localSheetId="18">UGT1A1!$D$1:$M$40</definedName>
+    <definedName name="VKORC1_haplotypes" localSheetId="19">VKORC1!$D$1:$N$14</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1897,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5609,6 +5609,194 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5759,7 +5947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -5848,7 +6036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC35"/>
   <sheetViews>
@@ -8796,7 +8984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -8914,7 +9102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
@@ -9641,7 +9829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M40"/>
   <sheetViews>
@@ -11153,569 +11341,6 @@
       </c>
       <c r="M40" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="7" width="10.5703125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="14" width="9.5703125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="B2" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -11813,184 +11438,559 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
+    <col min="12" max="14" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="B2" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>15</v>
+      <c r="E1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -28795,7 +28795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet_AutoPattern_v1.xlsx
+++ b/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet_AutoPattern_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="585" windowWidth="11415" windowHeight="2775" tabRatio="623"/>
+    <workbookView xWindow="270" yWindow="585" windowWidth="11415" windowHeight="2775" tabRatio="722" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ABCB1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="UGT1A1" sheetId="18" r:id="rId19"/>
     <sheet name="VKORC1" sheetId="19" r:id="rId20"/>
     <sheet name="Hoja1" sheetId="21" state="hidden" r:id="rId21"/>
+    <sheet name="CYP3A5" sheetId="22" r:id="rId22"/>
+    <sheet name="HLA-B" sheetId="23" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="ABCB1_haplotypes" localSheetId="0">ABCB1!$D$1:$J$6</definedName>
@@ -55,8 +57,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jose</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Jose:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In dbsnp xml indicates a forward orientation of AAG sequence and, then we changed it to CTT sequence to have the right nucleotides orientation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jose:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Remove label [gene deletion] from *5 haplotype</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9848" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9965" uniqueCount="540">
   <si>
     <t>status</t>
   </si>
@@ -1030,12 +1090,6 @@
     <t>CYP2D6</t>
   </si>
   <si>
-    <t>TTC</t>
-  </si>
-  <si>
-    <t>*5 [gene deletion]</t>
-  </si>
-  <si>
     <t>*41</t>
   </si>
   <si>
@@ -1556,17 +1610,174 @@
   </si>
   <si>
     <t>haplotype Mediterranean</t>
+  </si>
+  <si>
+    <t>CYP3A5</t>
+  </si>
+  <si>
+    <t>rs776746</t>
+  </si>
+  <si>
+    <t>rs10264272</t>
+  </si>
+  <si>
+    <t>rs28365083</t>
+  </si>
+  <si>
+    <t>rs28365085</t>
+  </si>
+  <si>
+    <t>rs28383468</t>
+  </si>
+  <si>
+    <t>rs28383479</t>
+  </si>
+  <si>
+    <t>rs41279854</t>
+  </si>
+  <si>
+    <t>rs41279857</t>
+  </si>
+  <si>
+    <t>rs41303343</t>
+  </si>
+  <si>
+    <t>rs55817950</t>
+  </si>
+  <si>
+    <t>rs55965422</t>
+  </si>
+  <si>
+    <t>rs56244447</t>
+  </si>
+  <si>
+    <t>rs56411402</t>
+  </si>
+  <si>
+    <t>rs72552791</t>
+  </si>
+  <si>
+    <t>rs76293380</t>
+  </si>
+  <si>
+    <t>HLA-B</t>
+  </si>
+  <si>
+    <t>*44</t>
+  </si>
+  <si>
+    <t>*5701</t>
+  </si>
+  <si>
+    <t>*5801</t>
+  </si>
+  <si>
+    <t>*1502</t>
+  </si>
+  <si>
+    <t>CTT</t>
+  </si>
+  <si>
+    <t>*38</t>
+  </si>
+  <si>
+    <t>*39</t>
+  </si>
+  <si>
+    <t>*40</t>
+  </si>
+  <si>
+    <t>*42</t>
+  </si>
+  <si>
+    <t>*45</t>
+  </si>
+  <si>
+    <t>*46</t>
+  </si>
+  <si>
+    <t>*47</t>
+  </si>
+  <si>
+    <t>*48</t>
+  </si>
+  <si>
+    <t>*49</t>
+  </si>
+  <si>
+    <t>*50</t>
+  </si>
+  <si>
+    <t>*51</t>
+  </si>
+  <si>
+    <t>*53</t>
+  </si>
+  <si>
+    <t>*54</t>
+  </si>
+  <si>
+    <t>*55</t>
+  </si>
+  <si>
+    <t>*56</t>
+  </si>
+  <si>
+    <t>*57</t>
+  </si>
+  <si>
+    <t>*59</t>
+  </si>
+  <si>
+    <t>*62</t>
+  </si>
+  <si>
+    <t>*69</t>
+  </si>
+  <si>
+    <t>*72</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1595,10 +1806,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1897,7 +2113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -2083,500 +2299,809 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="1" customWidth="1"/>
-    <col min="7" max="9" width="10.5703125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="9.5703125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.5703125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="9.5703125" style="3" customWidth="1"/>
+    <col min="13" max="14" width="10.5703125" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="J2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3" s="1" t="s">
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D13" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5" s="1" t="s">
+      <c r="D14" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="1" t="s">
+      <c r="D15" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D16" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D17" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="1" t="s">
+      <c r="D18" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="1" t="s">
+      <c r="D19" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="1" t="s">
+      <c r="D20" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="D21" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>12</v>
+      <c r="D22" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2613,45 +3138,45 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="B2" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2698,7 +3223,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -2748,7 +3273,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -2798,7 +3323,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -2848,7 +3373,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -2898,7 +3423,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -2948,7 +3473,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -2998,7 +3523,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -3048,7 +3573,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -3098,7 +3623,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -3148,7 +3673,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -3198,7 +3723,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
@@ -3248,7 +3773,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
@@ -3298,7 +3823,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -3348,13 +3873,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -3398,13 +3923,13 @@
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
@@ -3448,13 +3973,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
@@ -3498,13 +4023,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -3548,13 +4073,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
@@ -3598,7 +4123,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>93</v>
@@ -3642,7 +4167,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="B22" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>94</v>
@@ -3689,7 +4214,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>95</v>
@@ -3736,7 +4261,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>96</v>
@@ -3780,7 +4305,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="B25" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>97</v>
@@ -3827,7 +4352,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>98</v>
@@ -3874,7 +4399,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>99</v>
@@ -3921,7 +4446,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>100</v>
@@ -3965,7 +4490,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="B29" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>101</v>
@@ -4012,7 +4537,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>102</v>
@@ -4059,7 +4584,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>103</v>
@@ -4103,7 +4628,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="B32" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>16</v>
@@ -4147,7 +4672,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="B33" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>104</v>
@@ -4191,7 +4716,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="B34" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>105</v>
@@ -4238,7 +4763,7 @@
         <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>105</v>
@@ -4288,7 +4813,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>105</v>
@@ -4335,7 +4860,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="B37" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>106</v>
@@ -4382,13 +4907,13 @@
         <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>12</v>
@@ -4432,13 +4957,13 @@
         <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
@@ -4479,7 +5004,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="B40" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>107</v>
@@ -4523,7 +5048,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="B41" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>108</v>
@@ -4570,7 +5095,7 @@
         <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>108</v>
@@ -4620,7 +5145,7 @@
         <v>18</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>108</v>
@@ -4667,7 +5192,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="B44" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>109</v>
@@ -4714,7 +5239,7 @@
         <v>18</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>110</v>
@@ -4767,7 +5292,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4794,51 +5319,51 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="B2" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -4888,7 +5413,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="B3" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>93</v>
@@ -4941,7 +5466,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>93</v>
@@ -4994,7 +5519,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="B5" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>94</v>
@@ -5047,7 +5572,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>95</v>
@@ -5097,7 +5622,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>96</v>
@@ -5147,7 +5672,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="B8" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>97</v>
@@ -5197,7 +5722,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>98</v>
@@ -5247,7 +5772,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>99</v>
@@ -5297,7 +5822,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>100</v>
@@ -5350,7 +5875,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>100</v>
@@ -5403,7 +5928,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>101</v>
@@ -5453,7 +5978,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>102</v>
@@ -5503,7 +6028,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="B15" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>103</v>
@@ -5553,7 +6078,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="B16" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
@@ -5641,30 +6166,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -5687,10 +6212,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -5713,10 +6238,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -5739,10 +6264,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -5765,10 +6290,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -5826,42 +6351,42 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>27</v>
@@ -5902,10 +6427,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="B3" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -5978,21 +6503,21 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="B2" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
@@ -6012,7 +6537,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
@@ -6072,84 +6597,84 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="B2" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -6235,7 +6760,7 @@
     </row>
     <row r="3" spans="1:29">
       <c r="B3" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -6321,7 +6846,7 @@
     </row>
     <row r="4" spans="1:29">
       <c r="B4" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -6407,7 +6932,7 @@
     </row>
     <row r="5" spans="1:29">
       <c r="B5" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>93</v>
@@ -6490,7 +7015,7 @@
     </row>
     <row r="6" spans="1:29">
       <c r="B6" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>94</v>
@@ -6573,7 +7098,7 @@
     </row>
     <row r="7" spans="1:29">
       <c r="B7" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>95</v>
@@ -6656,7 +7181,7 @@
     </row>
     <row r="8" spans="1:29">
       <c r="B8" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>96</v>
@@ -6739,7 +7264,7 @@
     </row>
     <row r="9" spans="1:29">
       <c r="B9" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>97</v>
@@ -6822,7 +7347,7 @@
     </row>
     <row r="10" spans="1:29">
       <c r="B10" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>98</v>
@@ -6905,7 +7430,7 @@
     </row>
     <row r="11" spans="1:29">
       <c r="B11" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>99</v>
@@ -6988,7 +7513,7 @@
     </row>
     <row r="12" spans="1:29">
       <c r="B12" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>100</v>
@@ -7071,7 +7596,7 @@
     </row>
     <row r="13" spans="1:29">
       <c r="B13" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>101</v>
@@ -7154,7 +7679,7 @@
     </row>
     <row r="14" spans="1:29">
       <c r="B14" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>102</v>
@@ -7237,7 +7762,7 @@
     </row>
     <row r="15" spans="1:29">
       <c r="B15" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>103</v>
@@ -7320,7 +7845,7 @@
     </row>
     <row r="16" spans="1:29">
       <c r="B16" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
@@ -7403,7 +7928,7 @@
     </row>
     <row r="17" spans="2:29">
       <c r="B17" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>104</v>
@@ -7486,7 +8011,7 @@
     </row>
     <row r="18" spans="2:29">
       <c r="B18" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>105</v>
@@ -7569,7 +8094,7 @@
     </row>
     <row r="19" spans="2:29">
       <c r="B19" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>106</v>
@@ -7652,7 +8177,7 @@
     </row>
     <row r="20" spans="2:29">
       <c r="B20" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>107</v>
@@ -7735,7 +8260,7 @@
     </row>
     <row r="21" spans="2:29">
       <c r="B21" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>161</v>
@@ -7818,7 +8343,7 @@
     </row>
     <row r="22" spans="2:29">
       <c r="B22" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>162</v>
@@ -7901,7 +8426,7 @@
     </row>
     <row r="23" spans="2:29">
       <c r="B23" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>163</v>
@@ -7984,7 +8509,7 @@
     </row>
     <row r="24" spans="2:29">
       <c r="B24" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>166</v>
@@ -8067,7 +8592,7 @@
     </row>
     <row r="25" spans="2:29">
       <c r="B25" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>167</v>
@@ -8150,7 +8675,7 @@
     </row>
     <row r="26" spans="2:29">
       <c r="B26" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>168</v>
@@ -8233,7 +8758,7 @@
     </row>
     <row r="27" spans="2:29">
       <c r="B27" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>169</v>
@@ -8316,7 +8841,7 @@
     </row>
     <row r="28" spans="2:29">
       <c r="B28" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>245</v>
@@ -8399,7 +8924,7 @@
     </row>
     <row r="29" spans="2:29">
       <c r="B29" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>268</v>
@@ -8482,7 +9007,7 @@
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>172</v>
@@ -8565,7 +9090,7 @@
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>269</v>
@@ -8648,7 +9173,7 @@
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>270</v>
@@ -8731,7 +9256,7 @@
     </row>
     <row r="33" spans="2:29">
       <c r="B33" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>175</v>
@@ -8814,7 +9339,7 @@
     </row>
     <row r="34" spans="2:29">
       <c r="B34" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>176</v>
@@ -8897,7 +9422,7 @@
     </row>
     <row r="35" spans="2:29">
       <c r="B35" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>179</v>
@@ -9016,18 +9541,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -9044,7 +9569,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>93</v>
@@ -9064,7 +9589,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>94</v>
@@ -9081,7 +9606,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>96</v>
@@ -9104,723 +9629,746 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
-    <col min="5" max="8" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="3" customWidth="1"/>
+    <col min="5" max="8" width="9.5703125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="1" t="s">
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>12</v>
+      <c r="D31" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -9834,7 +10382,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9861,42 +10409,42 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>29</v>
@@ -9931,13 +10479,13 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>29</v>
@@ -9969,13 +10517,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
@@ -10010,13 +10558,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>29</v>
@@ -10048,13 +10596,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>29</v>
@@ -10086,13 +10634,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>29</v>
@@ -10124,13 +10672,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>29</v>
@@ -10162,13 +10710,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="B9" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
@@ -10200,13 +10748,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="B10" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
@@ -10238,13 +10786,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="B11" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>29</v>
@@ -10276,13 +10824,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="B12" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
@@ -10314,13 +10862,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>
@@ -10352,13 +10900,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="B14" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>29</v>
@@ -10390,13 +10938,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
@@ -10428,13 +10976,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
@@ -10466,13 +11014,13 @@
     </row>
     <row r="17" spans="1:13">
       <c r="B17" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
@@ -10507,13 +11055,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>29</v>
@@ -10548,13 +11096,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>29</v>
@@ -10589,13 +11137,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>29</v>
@@ -10627,13 +11175,13 @@
     </row>
     <row r="21" spans="1:13">
       <c r="B21" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>26</v>
@@ -10665,13 +11213,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="B22" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>26</v>
@@ -10703,13 +11251,13 @@
     </row>
     <row r="23" spans="1:13">
       <c r="B23" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>29</v>
@@ -10741,10 +11289,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="B24" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>29</v>
@@ -10776,10 +11324,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="B25" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>29</v>
@@ -10811,10 +11359,10 @@
     </row>
     <row r="26" spans="1:13">
       <c r="B26" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>29</v>
@@ -10846,10 +11394,10 @@
     </row>
     <row r="27" spans="1:13">
       <c r="B27" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>29</v>
@@ -10881,13 +11429,13 @@
     </row>
     <row r="28" spans="1:13">
       <c r="B28" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>29</v>
@@ -10919,13 +11467,13 @@
     </row>
     <row r="29" spans="1:13">
       <c r="B29" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>29</v>
@@ -10957,13 +11505,13 @@
     </row>
     <row r="30" spans="1:13">
       <c r="B30" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>29</v>
@@ -10995,10 +11543,10 @@
     </row>
     <row r="31" spans="1:13">
       <c r="B31" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>29</v>
@@ -11030,10 +11578,10 @@
     </row>
     <row r="32" spans="1:13">
       <c r="B32" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>29</v>
@@ -11065,10 +11613,10 @@
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>29</v>
@@ -11100,10 +11648,10 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>29</v>
@@ -11135,10 +11683,10 @@
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>29</v>
@@ -11170,10 +11718,10 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>26</v>
@@ -11205,10 +11753,10 @@
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>26</v>
@@ -11240,10 +11788,10 @@
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>29</v>
@@ -11275,10 +11823,10 @@
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>26</v>
@@ -11310,10 +11858,10 @@
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>29</v>
@@ -11441,7 +11989,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -11469,39 +12017,39 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -11528,7 +12076,7 @@
         <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>14</v>
@@ -11539,7 +12087,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>93</v>
@@ -11577,7 +12125,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>94</v>
@@ -11615,7 +12163,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>95</v>
@@ -11653,7 +12201,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -11691,7 +12239,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
@@ -11729,7 +12277,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>28</v>
@@ -11767,10 +12315,10 @@
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -11805,10 +12353,10 @@
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -11843,10 +12391,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -11881,10 +12429,10 @@
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -11919,10 +12467,10 @@
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -11957,10 +12505,10 @@
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
@@ -12008,6 +12556,171 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" style="4" customWidth="1"/>
+    <col min="8" max="19" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="B2" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13068,7 +13781,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -15259,7 +15972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -28795,7 +29508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet_AutoPattern_v1.xlsx
+++ b/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet_AutoPattern_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="585" windowWidth="11415" windowHeight="2775" tabRatio="722" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="270" yWindow="585" windowWidth="11415" windowHeight="2775" tabRatio="722" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ABCB1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9965" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9966" uniqueCount="541">
   <si>
     <t>status</t>
   </si>
@@ -1736,6 +1736,9 @@
   </si>
   <si>
     <t>*72</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2301,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2825,7 +2828,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:5">
       <c r="B17" s="3" t="s">
         <v>323</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:5">
       <c r="B18" s="3" t="s">
         <v>323</v>
       </c>
@@ -2841,7 +2844,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:5">
       <c r="B19" s="3" t="s">
         <v>323</v>
       </c>
@@ -2849,7 +2852,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:5">
       <c r="B20" s="3" t="s">
         <v>323</v>
       </c>
@@ -2857,7 +2860,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:5">
       <c r="B21" s="3" t="s">
         <v>323</v>
       </c>
@@ -2865,7 +2868,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:5">
       <c r="B22" s="3" t="s">
         <v>323</v>
       </c>
@@ -2873,7 +2876,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:5">
       <c r="B23" s="3" t="s">
         <v>323</v>
       </c>
@@ -2881,7 +2884,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:5">
       <c r="B24" s="3" t="s">
         <v>323</v>
       </c>
@@ -2889,7 +2892,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>323</v>
       </c>
@@ -2897,7 +2900,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:5">
       <c r="B26" s="3" t="s">
         <v>323</v>
       </c>
@@ -2905,15 +2908,18 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:5">
       <c r="B27" s="3" t="s">
         <v>323</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="28" spans="2:4">
+      <c r="E27" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" s="3" t="s">
         <v>323</v>
       </c>
@@ -2921,7 +2927,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:5">
       <c r="B29" s="3" t="s">
         <v>323</v>
       </c>
@@ -2929,7 +2935,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:5">
       <c r="B30" s="3" t="s">
         <v>323</v>
       </c>
@@ -2937,7 +2943,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:5">
       <c r="B31" s="3" t="s">
         <v>323</v>
       </c>
@@ -2945,7 +2951,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:5">
       <c r="B32" s="3" t="s">
         <v>323</v>
       </c>
@@ -5291,7 +5297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet_AutoPattern_v1.xlsx
+++ b/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet_AutoPattern_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="585" windowWidth="11415" windowHeight="2775" tabRatio="722" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="270" yWindow="585" windowWidth="11415" windowHeight="2775" tabRatio="722" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ABCB1" sheetId="1" r:id="rId1"/>
@@ -5297,7 +5297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -11995,555 +11995,556 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="7" width="10.5703125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="14" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" customWidth="1"/>
+    <col min="5" max="7" width="10.5703125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="9.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="3" customWidth="1"/>
+    <col min="12" max="14" width="9.5703125" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -29514,8 +29515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
